--- a/nordson.omu/src/test/java/com/nordson/testData/PressureValues.xlsx
+++ b/nordson.omu/src/test/java/com/nordson/testData/PressureValues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ravi Raj\git\nordsonomu_automation\nordson.omu\src\test\java\com\nordson\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1E3994-9079-48C5-90B7-A33FA016581A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA8D65A-D6AF-406F-ABDE-0F994A140680}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{0DCA89EA-4F37-48B5-B8D2-472A325DFB74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="971" firstSheet="1" activeTab="1" xr2:uid="{0DCA89EA-4F37-48B5-B8D2-472A325DFB74}"/>
   </bookViews>
   <sheets>
     <sheet name="kpaMinMaxSameValues" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="B1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C2"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,7 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF66B099-76A0-4630-B7C5-6712EE2C5428}">
   <dimension ref="B1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -728,7 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACC4B9A-2110-4E2B-8390-C455D5AB778F}">
   <dimension ref="B1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>

--- a/nordson.omu/src/test/java/com/nordson/testData/PressureValues.xlsx
+++ b/nordson.omu/src/test/java/com/nordson/testData/PressureValues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ravi Raj\git\nordsonomu_automation\nordson.omu\src\test\java\com\nordson\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA8D65A-D6AF-406F-ABDE-0F994A140680}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654E19B4-F7FB-4C94-9EEA-207B38BA4C17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="971" firstSheet="1" activeTab="1" xr2:uid="{0DCA89EA-4F37-48B5-B8D2-472A325DFB74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="971" firstSheet="1" activeTab="7" xr2:uid="{0DCA89EA-4F37-48B5-B8D2-472A325DFB74}"/>
   </bookViews>
   <sheets>
     <sheet name="kpaMinMaxSameValues" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>Kpa min value</t>
   </si>
@@ -57,12 +57,21 @@
   <si>
     <t>BAR max value</t>
   </si>
+  <si>
+    <t>PSI min value</t>
+  </si>
+  <si>
+    <t>PSI max value</t>
+  </si>
+  <si>
+    <t>PSI  max value</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,8 +94,16 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,8 +116,38 @@
         <bgColor indexed="34"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF53A1B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -123,14 +170,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{19DFC39A-23B0-4ADC-AB54-D047D0C5623A}"/>
@@ -138,6 +236,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF53A1B"/>
+      <color rgb="FFEF6425"/>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -446,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E1DBC9-FCF4-45E5-B4FD-5A6169F6B019}">
-  <dimension ref="B1:C2"/>
+  <dimension ref="B1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,32 +564,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <v>656</v>
+      </c>
+      <c r="C5" s="3">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>333</v>
+      </c>
+      <c r="C6" s="3">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF66B099-76A0-4630-B7C5-6712EE2C5428}">
-  <dimension ref="B1:C2"/>
+  <dimension ref="B1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,18 +632,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="5">
+        <v>655</v>
+      </c>
+      <c r="C3" s="5">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="6">
+        <v>656</v>
+      </c>
+      <c r="C4" s="6">
         <v>691</v>
       </c>
     </row>
@@ -519,7 +673,7 @@
   <dimension ref="B1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,10 +691,10 @@
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
         <v>690</v>
       </c>
     </row>
@@ -551,10 +705,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BDA572-95CB-4C0F-BFE9-D19F976A5730}">
-  <dimension ref="B1:C2"/>
+  <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,19 +718,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2">
+      <c r="B2" s="6">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="8">
+        <v>6.55</v>
+      </c>
+      <c r="C4" s="8">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="6">
+        <v>5.56</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5.57</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +767,7 @@
   <dimension ref="B1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C2"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,18 +777,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2">
+      <c r="B2" s="6">
         <v>1.9</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>2</v>
       </c>
     </row>
@@ -624,7 +802,7 @@
   <dimension ref="B1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,18 +812,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
         <v>6.9</v>
       </c>
     </row>
@@ -656,10 +834,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F6A708-03CB-449A-A84B-E21AA5507797}">
-  <dimension ref="B1:C2"/>
+  <dimension ref="B1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,19 +847,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2">
+      <c r="B2" s="6">
         <v>50</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="5">
+        <v>95</v>
+      </c>
+      <c r="C4" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
+        <v>96</v>
+      </c>
+      <c r="C6" s="6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -693,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7DF7BB-FD06-4419-854B-C831BB8AE32A}">
   <dimension ref="B1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,23 +914,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
+      <c r="B1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
         <v>101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -729,7 +940,7 @@
   <dimension ref="B1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,18 +950,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
         <v>100</v>
       </c>
     </row>
